--- a/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
+++ b/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fnicoletti/Sviluppo/it-fse-accreditamento/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C37AFD9-7218-5240-9FC9-B51574425936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134995D-E19F-8F45-BF29-BE78A1C62659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1873,18 +1873,6 @@
     <t>Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
-    <t>ea3a04bf123fc2dd</t>
-  </si>
-  <si>
-    <t>2023-03-07T11:11:29Z</t>
-  </si>
-  <si>
-    <t>8e2d0659edb6f755</t>
-  </si>
-  <si>
-    <t>2023-03-07T11:17:58Z</t>
-  </si>
-  <si>
     <t>Timeout di Connessione. Riprovare ad inviare il referto</t>
   </si>
   <si>
@@ -2032,18 +2020,6 @@
     <t>Il test non è applicabile perché non gestito dall'applicativo</t>
   </si>
   <si>
-    <t>2023-03-27T11:07:32Z</t>
-  </si>
-  <si>
-    <t>08d113c0eaa0fc9a</t>
-  </si>
-  <si>
-    <t>2023-03-27T13:08:38Z</t>
-  </si>
-  <si>
-    <t>5811887fe3c3c15e</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -2150,6 +2126,30 @@
   </si>
   <si>
     <t>2023-04-18T09:12:25Z</t>
+  </si>
+  <si>
+    <t>286fff4e2762772b</t>
+  </si>
+  <si>
+    <t>2023-04-18T09:23:21Z</t>
+  </si>
+  <si>
+    <t>8c84314134b3523a</t>
+  </si>
+  <si>
+    <t>2023-04-18T09:26:56Z</t>
+  </si>
+  <si>
+    <t>11569fa5489edb7</t>
+  </si>
+  <si>
+    <t>2023-04-18T09:30:05Z</t>
+  </si>
+  <si>
+    <t>2805af9ee4a25807</t>
+  </si>
+  <si>
+    <t>2023-04-18T09:32:04Z</t>
   </si>
 </sst>
 </file>
@@ -4135,10 +4135,10 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4583,13 +4583,13 @@
         <v>45034</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>83</v>
@@ -4633,7 +4633,7 @@
         <v>309</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -4671,7 +4671,7 @@
         <v>309</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -4709,7 +4709,7 @@
         <v>309</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -5318,13 +5318,13 @@
         <v>431</v>
       </c>
       <c r="F36" s="17">
-        <v>45012</v>
+        <v>45034</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>437</v>
@@ -5346,12 +5346,12 @@
         <v>83</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="20"/>
       <c r="S36" s="21" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="T36" s="37" t="s">
         <v>430</v>
@@ -5442,13 +5442,13 @@
         <v>431</v>
       </c>
       <c r="F39" s="27">
-        <v>44992</v>
+        <v>45034</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>437</v>
@@ -5470,12 +5470,12 @@
         <v>83</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q39" s="29"/>
       <c r="R39" s="30"/>
       <c r="S39" s="21" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="T39" s="37" t="s">
         <v>430</v>
@@ -5634,13 +5634,13 @@
         <v>432</v>
       </c>
       <c r="F44" s="17">
-        <v>45012</v>
+        <v>45034</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>437</v>
@@ -5653,21 +5653,21 @@
         <v>83</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="O44" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q44" s="19"/>
       <c r="R44" s="20"/>
       <c r="S44" s="21" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="T44" s="37" t="s">
         <v>430</v>
@@ -5758,13 +5758,13 @@
         <v>432</v>
       </c>
       <c r="F47" s="27">
-        <v>44992</v>
+        <v>45034</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>441</v>
+        <v>526</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>437</v>
@@ -5780,18 +5780,18 @@
         <v>83</v>
       </c>
       <c r="N47" s="29" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O47" s="29" t="s">
         <v>83</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q47" s="29"/>
       <c r="R47" s="30"/>
       <c r="S47" s="21" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="T47" s="37" t="s">
         <v>430</v>
@@ -5964,7 +5964,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
       <c r="P52" s="19" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="20" t="s">
@@ -6076,7 +6076,7 @@
       <c r="N55" s="19"/>
       <c r="O55" s="19"/>
       <c r="P55" s="19" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="20" t="s">
@@ -6589,13 +6589,13 @@
         <v>45012</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="J70" s="19" t="s">
         <v>83</v>
@@ -6608,18 +6608,18 @@
         <v>83</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="O70" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P70" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q70" s="19"/>
       <c r="R70" s="20"/>
       <c r="S70" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T70" s="37" t="s">
         <v>430</v>
@@ -6645,13 +6645,13 @@
         <v>45012</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="J71" s="19" t="s">
         <v>83</v>
@@ -6664,18 +6664,18 @@
         <v>83</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="O71" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P71" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q71" s="19"/>
       <c r="R71" s="20"/>
       <c r="S71" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T71" s="37" t="s">
         <v>430</v>
@@ -6705,7 +6705,7 @@
         <v>309</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
@@ -6743,7 +6743,7 @@
         <v>309</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
@@ -6777,13 +6777,13 @@
         <v>45012</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="J74" s="19" t="s">
         <v>83</v>
@@ -6796,18 +6796,18 @@
         <v>83</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="O74" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P74" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q74" s="19"/>
       <c r="R74" s="20"/>
       <c r="S74" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T74" s="37" t="s">
         <v>430</v>
@@ -6833,16 +6833,16 @@
         <v>45012</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K75" s="19"/>
       <c r="L75" s="19" t="s">
@@ -6852,18 +6852,18 @@
         <v>83</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="O75" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P75" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q75" s="19"/>
       <c r="R75" s="20"/>
       <c r="S75" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T75" s="37" t="s">
         <v>430</v>
@@ -6889,13 +6889,13 @@
         <v>45012</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="J76" s="19" t="s">
         <v>83</v>
@@ -6908,18 +6908,18 @@
         <v>83</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="O76" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P76" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q76" s="19"/>
       <c r="R76" s="20"/>
       <c r="S76" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T76" s="37" t="s">
         <v>430</v>
@@ -6945,13 +6945,13 @@
         <v>45012</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>83</v>
@@ -6964,18 +6964,18 @@
         <v>83</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="O77" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q77" s="19"/>
       <c r="R77" s="20"/>
       <c r="S77" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T77" s="37" t="s">
         <v>430</v>
@@ -7005,7 +7005,7 @@
         <v>309</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
@@ -7043,7 +7043,7 @@
         <v>309</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L79" s="19"/>
       <c r="M79" s="19"/>
@@ -7081,7 +7081,7 @@
         <v>309</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L80" s="19"/>
       <c r="M80" s="19"/>
@@ -7119,7 +7119,7 @@
         <v>309</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
@@ -9601,13 +9601,13 @@
         <v>45034</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="J154" s="19" t="s">
         <v>83</v>
@@ -9651,7 +9651,7 @@
         <v>309</v>
       </c>
       <c r="K155" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L155" s="19"/>
       <c r="M155" s="19"/>
@@ -9689,7 +9689,7 @@
         <v>309</v>
       </c>
       <c r="K156" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L156" s="19"/>
       <c r="M156" s="19"/>
@@ -9727,7 +9727,7 @@
         <v>309</v>
       </c>
       <c r="K157" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L157" s="19"/>
       <c r="M157" s="19"/>
@@ -9761,13 +9761,13 @@
         <v>44992</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J158" s="19" t="s">
         <v>83</v>
@@ -9780,18 +9780,18 @@
         <v>83</v>
       </c>
       <c r="N158" s="19" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O158" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P158" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q158" s="19"/>
       <c r="R158" s="20"/>
       <c r="S158" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T158" s="37" t="s">
         <v>430</v>
@@ -9817,13 +9817,13 @@
         <v>44992</v>
       </c>
       <c r="G159" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I159" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J159" s="19" t="s">
         <v>83</v>
@@ -9836,18 +9836,18 @@
         <v>83</v>
       </c>
       <c r="N159" s="19" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O159" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P159" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q159" s="19"/>
       <c r="R159" s="20"/>
       <c r="S159" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T159" s="37" t="s">
         <v>430</v>
@@ -9877,7 +9877,7 @@
         <v>309</v>
       </c>
       <c r="K160" s="19" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L160" s="19"/>
       <c r="M160" s="19"/>
@@ -9911,13 +9911,13 @@
         <v>44992</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J161" s="19" t="s">
         <v>83</v>
@@ -9930,18 +9930,18 @@
         <v>83</v>
       </c>
       <c r="N161" s="19" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O161" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P161" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q161" s="19"/>
       <c r="R161" s="20"/>
       <c r="S161" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T161" s="37" t="s">
         <v>430</v>
@@ -9967,13 +9967,13 @@
         <v>44992</v>
       </c>
       <c r="G162" s="28" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J162" s="19" t="s">
         <v>83</v>
@@ -9986,18 +9986,18 @@
         <v>83</v>
       </c>
       <c r="N162" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O162" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P162" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q162" s="19"/>
       <c r="R162" s="20"/>
       <c r="S162" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T162" s="37" t="s">
         <v>430</v>
@@ -10023,13 +10023,13 @@
         <v>44992</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J163" s="19" t="s">
         <v>83</v>
@@ -10042,18 +10042,18 @@
         <v>83</v>
       </c>
       <c r="N163" s="19" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O163" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P163" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q163" s="19"/>
       <c r="R163" s="20"/>
       <c r="S163" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T163" s="37" t="s">
         <v>430</v>
@@ -10079,13 +10079,13 @@
         <v>44993</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J164" s="19" t="s">
         <v>83</v>
@@ -10098,18 +10098,18 @@
         <v>83</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O164" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P164" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q164" s="19"/>
       <c r="R164" s="20"/>
       <c r="S164" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T164" s="37" t="s">
         <v>430</v>
@@ -10135,13 +10135,13 @@
         <v>44995</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J165" s="19" t="s">
         <v>83</v>
@@ -10154,18 +10154,18 @@
         <v>83</v>
       </c>
       <c r="N165" s="19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O165" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P165" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q165" s="19"/>
       <c r="R165" s="20"/>
       <c r="S165" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T165" s="37" t="s">
         <v>430</v>
@@ -10191,13 +10191,13 @@
         <v>44995</v>
       </c>
       <c r="G166" s="28" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J166" s="19" t="s">
         <v>83</v>
@@ -10210,18 +10210,18 @@
         <v>83</v>
       </c>
       <c r="N166" s="19" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O166" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P166" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q166" s="19"/>
       <c r="R166" s="20"/>
       <c r="S166" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T166" s="37" t="s">
         <v>430</v>
@@ -10247,13 +10247,13 @@
         <v>44995</v>
       </c>
       <c r="G167" s="28" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J167" s="19" t="s">
         <v>83</v>
@@ -10266,18 +10266,18 @@
         <v>83</v>
       </c>
       <c r="N167" s="19" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O167" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P167" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q167" s="19"/>
       <c r="R167" s="20"/>
       <c r="S167" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T167" s="37" t="s">
         <v>430</v>
@@ -10303,13 +10303,13 @@
         <v>44992</v>
       </c>
       <c r="G168" s="28" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J168" s="19" t="s">
         <v>83</v>
@@ -10322,18 +10322,18 @@
         <v>83</v>
       </c>
       <c r="N168" s="19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O168" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q168" s="19"/>
       <c r="R168" s="20"/>
       <c r="S168" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T168" s="37" t="s">
         <v>430</v>
@@ -10363,7 +10363,7 @@
         <v>309</v>
       </c>
       <c r="K169" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L169" s="19"/>
       <c r="M169" s="19"/>
@@ -10401,7 +10401,7 @@
         <v>309</v>
       </c>
       <c r="K170" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L170" s="19"/>
       <c r="M170" s="19"/>
@@ -10439,7 +10439,7 @@
         <v>309</v>
       </c>
       <c r="K171" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L171" s="19"/>
       <c r="M171" s="19"/>
@@ -10477,7 +10477,7 @@
         <v>309</v>
       </c>
       <c r="K172" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L172" s="19"/>
       <c r="M172" s="19"/>
@@ -10515,7 +10515,7 @@
         <v>309</v>
       </c>
       <c r="K173" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L173" s="19"/>
       <c r="M173" s="19"/>
@@ -10553,7 +10553,7 @@
         <v>309</v>
       </c>
       <c r="K174" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L174" s="19"/>
       <c r="M174" s="19"/>
@@ -10591,7 +10591,7 @@
         <v>309</v>
       </c>
       <c r="K175" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L175" s="19"/>
       <c r="M175" s="19"/>
@@ -10625,13 +10625,13 @@
         <v>44995</v>
       </c>
       <c r="G176" s="28" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J176" s="19" t="s">
         <v>83</v>
@@ -10644,18 +10644,18 @@
         <v>83</v>
       </c>
       <c r="N176" s="19" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O176" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q176" s="19"/>
       <c r="R176" s="20"/>
       <c r="S176" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T176" s="37" t="s">
         <v>430</v>

--- a/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
+++ b/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fnicoletti/Sviluppo/it-fse-accreditamento/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134995D-E19F-8F45-BF29-BE78A1C62659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B395FC84-6C07-9F43-BD1F-356344C51DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2119,15 +2119,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.bd53cd5a744eb753a616c6cbd24b96b8f4133a7ceb4c81e58ef17b8f6edda267.e5cc12c9e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>a8835de699310425</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10206.33bf17bb725cf82cb26af86b6e2980631449df4aa4819a4151865f7685893796.117368afc6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-18T09:12:25Z</t>
-  </si>
-  <si>
     <t>286fff4e2762772b</t>
   </si>
   <si>
@@ -2140,16 +2131,25 @@
     <t>2023-04-18T09:26:56Z</t>
   </si>
   <si>
-    <t>11569fa5489edb7</t>
-  </si>
-  <si>
-    <t>2023-04-18T09:30:05Z</t>
-  </si>
-  <si>
     <t>2805af9ee4a25807</t>
   </si>
   <si>
     <t>2023-04-18T09:32:04Z</t>
+  </si>
+  <si>
+    <t>8f66e03f24a66033</t>
+  </si>
+  <si>
+    <t>2023-04-19T15:25:13Z</t>
+  </si>
+  <si>
+    <t>04e6c903aa6489c7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10206.33bf17bb725cf82cb26af86b6e2980631449df4aa4819a4151865f7685893796.d84f55f953^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-19T15:34:39Z</t>
   </si>
 </sst>
 </file>
@@ -4135,7 +4135,7 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
@@ -4580,16 +4580,16 @@
         <v>39</v>
       </c>
       <c r="F15" s="27">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>83</v>
@@ -5321,10 +5321,10 @@
         <v>45034</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>437</v>
@@ -5445,10 +5445,10 @@
         <v>45034</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>437</v>
@@ -5634,13 +5634,13 @@
         <v>432</v>
       </c>
       <c r="F44" s="17">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>437</v>
@@ -5761,10 +5761,10 @@
         <v>45034</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>437</v>

--- a/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
+++ b/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fnicoletti/Sviluppo/it-fse-accreditamento/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B395FC84-6C07-9F43-BD1F-356344C51DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE3CA40-563A-5C46-8B3F-5DC53EE66201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2143,13 +2143,13 @@
     <t>2023-04-19T15:25:13Z</t>
   </si>
   <si>
-    <t>04e6c903aa6489c7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10206.33bf17bb725cf82cb26af86b6e2980631449df4aa4819a4151865f7685893796.d84f55f953^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-19T15:34:39Z</t>
+    <t>a6ccd15b3de1ef62</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10206.33bf17bb725cf82cb26af86b6e2980631449df4aa4819a4151865f7685893796.cf7a41f586^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-21T17:41:36Z</t>
   </si>
 </sst>
 </file>
@@ -4135,10 +4135,10 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4580,7 +4580,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="27">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>531</v>
@@ -27172,26 +27172,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -27422,32 +27402,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27466,6 +27441,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
+++ b/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fnicoletti/Sviluppo/it-fse-accreditamento/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE3CA40-563A-5C46-8B3F-5DC53EE66201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B5639B-E9CF-C94C-832C-896995F85A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="66360" yWindow="2400" windowWidth="34560" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="533">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -2150,6 +2150,9 @@
   </si>
   <si>
     <t>2023-04-21T17:41:36Z</t>
+  </si>
+  <si>
+    <t>Mostrato a video l'errore evidenziato nella colonna N, l'utente contatta l'assistenza che verificando i log applicativi potrà effettuare nuovamente la validazione</t>
   </si>
 </sst>
 </file>
@@ -4135,10 +4138,10 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5935,7 +5938,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>45</v>
       </c>
@@ -5961,10 +5964,14 @@
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
+      <c r="N52" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="P52" s="19" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="20" t="s">
@@ -5999,7 +6006,9 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
+      <c r="N53" s="19" t="s">
+        <v>439</v>
+      </c>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -6047,7 +6056,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>48</v>
       </c>
@@ -6073,10 +6082,14 @@
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
       <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
+      <c r="N55" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O55" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="P55" s="19" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="20" t="s">
@@ -27172,6 +27185,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -27402,27 +27435,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27441,31 +27479,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
+++ b/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/report_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fnicoletti/Sviluppo/it-fse-accreditamento/GATEWAY/A1#111LATRACCIA00/COOPERATIVA_EDP_LATRACCIA/GEPADIAL/V.2.0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B5639B-E9CF-C94C-832C-896995F85A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC0152C-65B9-AE41-AE14-CF63B8AA9788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="66360" yWindow="2400" windowWidth="34560" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2026,9 +2026,6 @@
     <t>Campo token JWT non valido. Il codice fiscale nel campo sub non è corretto</t>
   </si>
   <si>
-    <t>Timeout di Connessione. Riprovare ad inviare la lettera di dimissione</t>
-  </si>
-  <si>
     <t>b0512c18fb5af7cf</t>
   </si>
   <si>
@@ -2153,6 +2150,9 @@
   </si>
   <si>
     <t>Mostrato a video l'errore evidenziato nella colonna N, l'utente contatta l'assistenza che verificando i log applicativi potrà effettuare nuovamente la validazione</t>
+  </si>
+  <si>
+    <t>Timeout di Connessione. Contattare l'assistenza tecnica per la risoluzione del problema</t>
   </si>
 </sst>
 </file>
@@ -4138,10 +4138,10 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="L47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P52" sqref="P52"/>
+      <selection pane="bottomRight" activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4586,13 +4586,13 @@
         <v>45037</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H15" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>529</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>530</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>83</v>
@@ -5324,10 +5324,10 @@
         <v>45034</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>437</v>
@@ -5349,12 +5349,12 @@
         <v>83</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="20"/>
       <c r="S36" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T36" s="37" t="s">
         <v>430</v>
@@ -5448,10 +5448,10 @@
         <v>45034</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>437</v>
@@ -5473,12 +5473,12 @@
         <v>83</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q39" s="29"/>
       <c r="R39" s="30"/>
       <c r="S39" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T39" s="37" t="s">
         <v>430</v>
@@ -5640,10 +5640,10 @@
         <v>45035</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>437</v>
@@ -5665,12 +5665,12 @@
         <v>83</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q44" s="19"/>
       <c r="R44" s="20"/>
       <c r="S44" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T44" s="37" t="s">
         <v>430</v>
@@ -5764,10 +5764,10 @@
         <v>45034</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>437</v>
@@ -5789,12 +5789,12 @@
         <v>83</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q47" s="29"/>
       <c r="R47" s="30"/>
       <c r="S47" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T47" s="37" t="s">
         <v>430</v>
@@ -5965,13 +5965,13 @@
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
       <c r="N52" s="19" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="O52" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="20" t="s">
@@ -6083,13 +6083,13 @@
       <c r="L55" s="19"/>
       <c r="M55" s="19"/>
       <c r="N55" s="19" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="O55" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P55" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="20" t="s">
@@ -6602,13 +6602,13 @@
         <v>45012</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H70" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="I70" s="18" t="s">
         <v>491</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>492</v>
       </c>
       <c r="J70" s="19" t="s">
         <v>83</v>
@@ -6621,13 +6621,13 @@
         <v>83</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O70" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P70" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q70" s="19"/>
       <c r="R70" s="20"/>
@@ -6658,13 +6658,13 @@
         <v>45012</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H71" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="I71" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="J71" s="19" t="s">
         <v>83</v>
@@ -6677,13 +6677,13 @@
         <v>83</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O71" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P71" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q71" s="19"/>
       <c r="R71" s="20"/>
@@ -6790,13 +6790,13 @@
         <v>45012</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H74" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="I74" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="J74" s="19" t="s">
         <v>83</v>
@@ -6809,13 +6809,13 @@
         <v>83</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O74" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P74" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q74" s="19"/>
       <c r="R74" s="20"/>
@@ -6846,16 +6846,16 @@
         <v>45012</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H75" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="I75" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="I75" s="18" t="s">
+      <c r="J75" s="19" t="s">
         <v>504</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>505</v>
       </c>
       <c r="K75" s="19"/>
       <c r="L75" s="19" t="s">
@@ -6865,13 +6865,13 @@
         <v>83</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O75" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P75" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q75" s="19"/>
       <c r="R75" s="20"/>
@@ -6902,13 +6902,13 @@
         <v>45012</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H76" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="I76" s="18" t="s">
         <v>508</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>509</v>
       </c>
       <c r="J76" s="19" t="s">
         <v>83</v>
@@ -6921,13 +6921,13 @@
         <v>83</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O76" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P76" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q76" s="19"/>
       <c r="R76" s="20"/>
@@ -6958,13 +6958,13 @@
         <v>45012</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H77" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="I77" s="18" t="s">
         <v>512</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>513</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>83</v>
@@ -6977,13 +6977,13 @@
         <v>83</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O77" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q77" s="19"/>
       <c r="R77" s="20"/>
@@ -9614,13 +9614,13 @@
         <v>45034</v>
       </c>
       <c r="G154" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H154" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="I154" s="18" t="s">
         <v>519</v>
-      </c>
-      <c r="H154" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="I154" s="18" t="s">
-        <v>520</v>
       </c>
       <c r="J154" s="19" t="s">
         <v>83</v>
@@ -9799,7 +9799,7 @@
         <v>83</v>
       </c>
       <c r="P158" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q158" s="19"/>
       <c r="R158" s="20"/>
@@ -9855,7 +9855,7 @@
         <v>83</v>
       </c>
       <c r="P159" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q159" s="19"/>
       <c r="R159" s="20"/>
@@ -9949,7 +9949,7 @@
         <v>83</v>
       </c>
       <c r="P161" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q161" s="19"/>
       <c r="R161" s="20"/>
@@ -10005,7 +10005,7 @@
         <v>83</v>
       </c>
       <c r="P162" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q162" s="19"/>
       <c r="R162" s="20"/>
@@ -10061,7 +10061,7 @@
         <v>83</v>
       </c>
       <c r="P163" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q163" s="19"/>
       <c r="R163" s="20"/>
@@ -10117,7 +10117,7 @@
         <v>83</v>
       </c>
       <c r="P164" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q164" s="19"/>
       <c r="R164" s="20"/>
@@ -10173,7 +10173,7 @@
         <v>83</v>
       </c>
       <c r="P165" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q165" s="19"/>
       <c r="R165" s="20"/>
@@ -10229,7 +10229,7 @@
         <v>83</v>
       </c>
       <c r="P166" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q166" s="19"/>
       <c r="R166" s="20"/>
@@ -10285,7 +10285,7 @@
         <v>83</v>
       </c>
       <c r="P167" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q167" s="19"/>
       <c r="R167" s="20"/>
@@ -10341,7 +10341,7 @@
         <v>83</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q168" s="19"/>
       <c r="R168" s="20"/>
@@ -10663,7 +10663,7 @@
         <v>83</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q176" s="19"/>
       <c r="R176" s="20"/>
@@ -27185,26 +27185,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -27435,32 +27415,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27479,6 +27454,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
